--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Na/na_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Na/na_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\R_coding\[사업] 2023_혼합음료\4. 양이온 표시기준 실제값 차이(Log변환)\Na\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\Log chart_양이온 표시기준 실제값 차이(Log변환)\Na\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,236 +24,6 @@
     <t>name_new</t>
   </si>
   <si>
-    <t>m-AB</t>
-  </si>
-  <si>
-    <t>m-AC</t>
-  </si>
-  <si>
-    <t>m-AD</t>
-  </si>
-  <si>
-    <t>m-AE</t>
-  </si>
-  <si>
-    <t>m-AF</t>
-  </si>
-  <si>
-    <t>m-AG</t>
-  </si>
-  <si>
-    <t>m-AH</t>
-  </si>
-  <si>
-    <t>m-AI</t>
-  </si>
-  <si>
-    <t>m-AJ</t>
-  </si>
-  <si>
-    <t>m-AK</t>
-  </si>
-  <si>
-    <t>m-AL</t>
-  </si>
-  <si>
-    <t>m-AM</t>
-  </si>
-  <si>
-    <t>m-AN</t>
-  </si>
-  <si>
-    <t>m-AO</t>
-  </si>
-  <si>
-    <t>m-AP</t>
-  </si>
-  <si>
-    <t>m-AQ</t>
-  </si>
-  <si>
-    <t>m-AR</t>
-  </si>
-  <si>
-    <t>m-AS</t>
-  </si>
-  <si>
-    <t>m-AT</t>
-  </si>
-  <si>
-    <t>m-AU</t>
-  </si>
-  <si>
-    <t>m-AV</t>
-  </si>
-  <si>
-    <t>m-AW</t>
-  </si>
-  <si>
-    <t>m-AX</t>
-  </si>
-  <si>
-    <t>m-AY</t>
-  </si>
-  <si>
-    <t>m-AZ</t>
-  </si>
-  <si>
-    <t>m-BC</t>
-  </si>
-  <si>
-    <t>m-BD</t>
-  </si>
-  <si>
-    <t>m-BE</t>
-  </si>
-  <si>
-    <t>m-CQ</t>
-  </si>
-  <si>
-    <t>m-BG</t>
-  </si>
-  <si>
-    <t>m-BH</t>
-  </si>
-  <si>
-    <t>m-BI</t>
-  </si>
-  <si>
-    <t>m-BJ</t>
-  </si>
-  <si>
-    <t>m-BK</t>
-  </si>
-  <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-FG</t>
-  </si>
-  <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-GO</t>
-  </si>
-  <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-GT</t>
-  </si>
-  <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
-    <t>Mixed water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drinking water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,6 +32,234 @@
   </si>
   <si>
     <t>Na_max</t>
+  </si>
+  <si>
+    <t>M-AB</t>
+  </si>
+  <si>
+    <t>M-AC</t>
+  </si>
+  <si>
+    <t>M-AD</t>
+  </si>
+  <si>
+    <t>M-AE</t>
+  </si>
+  <si>
+    <t>M-AF</t>
+  </si>
+  <si>
+    <t>M-AG</t>
+  </si>
+  <si>
+    <t>M-AH</t>
+  </si>
+  <si>
+    <t>M-AI</t>
+  </si>
+  <si>
+    <t>M-AJ</t>
+  </si>
+  <si>
+    <t>M-AK</t>
+  </si>
+  <si>
+    <t>M-AL</t>
+  </si>
+  <si>
+    <t>M-AM</t>
+  </si>
+  <si>
+    <t>M-AN</t>
+  </si>
+  <si>
+    <t>M-AO</t>
+  </si>
+  <si>
+    <t>M-AP</t>
+  </si>
+  <si>
+    <t>M-AQ</t>
+  </si>
+  <si>
+    <t>M-AR</t>
+  </si>
+  <si>
+    <t>M-AS</t>
+  </si>
+  <si>
+    <t>M-AT</t>
+  </si>
+  <si>
+    <t>M-AU</t>
+  </si>
+  <si>
+    <t>M-AV</t>
+  </si>
+  <si>
+    <t>M-AW</t>
+  </si>
+  <si>
+    <t>M-AX</t>
+  </si>
+  <si>
+    <t>M-AY</t>
+  </si>
+  <si>
+    <t>M-AZ</t>
+  </si>
+  <si>
+    <t>M-BC</t>
+  </si>
+  <si>
+    <t>M-BD</t>
+  </si>
+  <si>
+    <t>M-BE</t>
+  </si>
+  <si>
+    <t>M-CQ</t>
+  </si>
+  <si>
+    <t>M-BG</t>
+  </si>
+  <si>
+    <t>M-BH</t>
+  </si>
+  <si>
+    <t>M-BI</t>
+  </si>
+  <si>
+    <t>M-BJ</t>
+  </si>
+  <si>
+    <t>M-BK</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-FG</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-GH</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-GO</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-GT</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>Mineral-infused water</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
   </si>
 </sst>
 </file>
@@ -600,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -615,24 +613,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
         <v>12.580818097072459</v>
@@ -643,10 +641,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>2.1388256116432021</v>
@@ -657,10 +655,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8">
         <v>22.590447521144199</v>
@@ -671,10 +669,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>3.7751569770547508</v>
@@ -685,10 +683,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8">
         <v>1.9814253752346949E-2</v>
@@ -699,10 +697,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>6.1966023516336947E-2</v>
@@ -713,10 +711,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8">
         <v>30.074437943331841</v>
@@ -727,10 +725,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
         <v>1.6639829639145589E-2</v>
@@ -741,10 +739,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8">
         <v>2.7136028247647281E-2</v>
@@ -755,10 +753,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>3.2718298463277802</v>
@@ -767,10 +765,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
         <v>3.2481297519338601</v>
@@ -779,10 +777,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8">
         <v>8.1463956708326002</v>
@@ -793,10 +791,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8">
         <v>6.3108760038270049</v>
@@ -805,10 +803,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
         <v>5.6640826867234262</v>
@@ -817,10 +815,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>3.4382433456631869</v>
@@ -829,10 +827,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8">
         <v>11.00809005413131</v>
@@ -843,10 +841,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <v>22.442235295760469</v>
@@ -857,10 +855,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>11.55673062752895</v>
@@ -869,10 +867,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
         <v>10.88628305816802</v>
@@ -881,10 +879,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>5.5373894927017906</v>
@@ -895,10 +893,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
         <v>2.2839468879466089</v>
@@ -909,10 +907,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
         <v>12.327757425532029</v>
@@ -923,10 +921,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>11.90482047209932</v>
@@ -937,10 +935,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8">
         <v>7.9360770577188244</v>
@@ -949,10 +947,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="8">
         <v>22.453518826297941</v>
@@ -963,10 +961,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8">
         <v>8.8944899393648313</v>
@@ -977,10 +975,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8">
         <v>5.362984458183309</v>
@@ -989,10 +987,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="8">
         <v>43.17223753447022</v>
@@ -1001,10 +999,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8">
         <v>14.418792148529111</v>
@@ -1013,10 +1011,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8">
         <v>8.9920694698386843</v>
@@ -1025,10 +1023,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8">
         <v>4.2649168904025716</v>
@@ -1037,10 +1035,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>1.8786688249706041</v>
@@ -1049,10 +1047,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8">
         <v>10.205369841080159</v>
@@ -1063,10 +1061,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="8">
         <v>9.8314589834229924</v>
@@ -1075,10 +1073,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" s="8">
         <v>2.0137351373831951</v>
@@ -1089,10 +1087,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37" s="8">
         <v>1.9170568947917199</v>
@@ -1103,10 +1101,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8">
         <v>13.00248602487309</v>
@@ -1117,10 +1115,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8">
         <v>13.345536032146949</v>
@@ -1131,10 +1129,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8">
         <v>1.84989223007751</v>
@@ -1145,10 +1143,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" s="8">
         <v>3.809474732994945</v>
@@ -1159,10 +1157,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="8">
         <v>11.988022902050581</v>
@@ -1173,10 +1171,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" s="8">
         <v>13.37988319266122</v>
@@ -1187,10 +1185,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C44" s="8">
         <v>3.810629058618606</v>
@@ -1201,10 +1199,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C45" s="8">
         <v>3.7941425762278311</v>
@@ -1215,10 +1213,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8">
         <v>8.26252997868332</v>
@@ -1229,10 +1227,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" s="8">
         <v>8.1841550021688736</v>
@@ -1243,10 +1241,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" s="8">
         <v>8.3682989787678217</v>
@@ -1257,10 +1255,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="8">
         <v>8.2455820413904402</v>
@@ -1271,10 +1269,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C50" s="8">
         <v>10.30930790591516</v>
@@ -1285,10 +1283,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C51" s="8">
         <v>10.316755365810801</v>
@@ -1299,10 +1297,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8">
         <v>11.961096802003141</v>
@@ -1313,10 +1311,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C53" s="8">
         <v>11.54985896712858</v>
@@ -1327,10 +1325,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C54" s="8">
         <v>5.2107679935327633</v>
@@ -1341,10 +1339,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C55" s="8">
         <v>6.4506081064384144</v>
@@ -1355,10 +1353,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C56" s="8">
         <v>5.4235328312984636</v>
@@ -1369,10 +1367,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C57" s="8">
         <v>3.3379924251332072</v>
@@ -1383,10 +1381,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C58" s="8">
         <v>6.0542164751160987</v>
@@ -1397,10 +1395,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C59" s="8">
         <v>5.2559509258890493</v>
@@ -1409,10 +1407,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C60" s="8">
         <v>5.2037993074806721</v>
@@ -1423,10 +1421,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C61" s="8">
         <v>4.8204085638738361</v>
@@ -1437,10 +1435,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C62" s="8">
         <v>5.3788575146888933</v>
@@ -1451,10 +1449,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C63" s="8">
         <v>10.660149323330179</v>
@@ -1465,10 +1463,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C64" s="8">
         <v>5.3832692118645653</v>
@@ -1479,10 +1477,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C65" s="8">
         <v>5.199720197952268</v>
@@ -1493,10 +1491,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8">
         <v>5.4416694490878568</v>
@@ -1507,10 +1505,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8">
         <v>5.4756897457652016</v>
@@ -1521,10 +1519,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="8">
         <v>5.7808579307708463</v>
@@ -1535,10 +1533,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="8">
         <v>5.5944259747851648</v>
@@ -1549,10 +1547,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70" s="8">
         <v>6.4992017597171881</v>
@@ -1563,10 +1561,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C71" s="8">
         <v>6.8656570574741567</v>
@@ -1577,10 +1575,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="8">
         <v>22.011586604218071</v>
@@ -1591,10 +1589,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="8">
         <v>22.495654270085179</v>
@@ -1605,10 +1603,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C74" s="8">
         <v>23.60416254397634</v>
@@ -1619,10 +1617,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C75" s="8">
         <v>22.450112337433239</v>
@@ -1633,10 +1631,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C76" s="8">
         <v>22.60011634916377</v>
@@ -1647,10 +1645,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C77" s="8">
         <v>21.263745983764661</v>
@@ -1661,10 +1659,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C78" s="8">
         <v>15.587865143073181</v>
@@ -1675,10 +1673,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C79" s="8">
         <v>4.9658239279597902</v>
@@ -1689,10 +1687,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C80" s="8">
         <v>6.4802732994043213</v>
@@ -1703,10 +1701,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C81" s="8">
         <v>9.896468021887129</v>
@@ -1717,10 +1715,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C82" s="8">
         <v>6.3976976531380148</v>
@@ -1731,10 +1729,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C83" s="8">
         <v>5.4237020098033142</v>
@@ -1745,10 +1743,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8">
         <v>9.8923308622705708</v>
@@ -1759,10 +1757,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C85" s="8">
         <v>11.310766313472669</v>
@@ -1773,10 +1771,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" s="8">
         <v>6.0839807558281302</v>
@@ -1787,10 +1785,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C87" s="8">
         <v>5.8741674062150899</v>
@@ -1801,10 +1799,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C88" s="8">
         <v>5.8899786178955162</v>
@@ -1815,10 +1813,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C89" s="8">
         <v>5.6674317042495801</v>
@@ -1829,10 +1827,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C90" s="8">
         <v>5.6727165391062053</v>
@@ -1843,10 +1841,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C91" s="8">
         <v>5.6617619089940057</v>
@@ -1857,10 +1855,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C92" s="8">
         <v>13.44168044040855</v>
@@ -1871,10 +1869,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C93" s="8">
         <v>13.226994368245309</v>
@@ -1885,10 +1883,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C94" s="8">
         <v>13.722481042667111</v>
@@ -1899,10 +1897,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C95" s="8">
         <v>14.34128582651258</v>
@@ -1913,10 +1911,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C96" s="8">
         <v>12.852348970033381</v>
@@ -1927,10 +1925,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C97" s="8">
         <v>11.182567737916139</v>
@@ -1941,10 +1939,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C98" s="8">
         <v>10.50978511338116</v>
@@ -1955,10 +1953,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C99" s="8">
         <v>10.39997588268899</v>
@@ -1969,10 +1967,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C100" s="8">
         <v>10.3165331448266</v>
@@ -1983,10 +1981,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C101" s="8">
         <v>3.8380289627204021</v>
@@ -1997,10 +1995,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C102" s="8">
         <v>4.1787853726321051</v>
@@ -2011,10 +2009,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C103" s="8">
         <v>10.655720022226451</v>
@@ -2025,10 +2023,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C104" s="8">
         <v>4.8421785674656208</v>
@@ -2037,10 +2035,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C105" s="8">
         <v>5.1890456559611593</v>
@@ -2051,10 +2049,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C106" s="8">
         <v>6.4310726595140864</v>
@@ -2065,10 +2063,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C107" s="8">
         <v>6.3410152096835004</v>
@@ -2079,10 +2077,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C108" s="8">
         <v>5.9825384982960754</v>
@@ -2093,10 +2091,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C109" s="8">
         <v>6.2002764182408923</v>
@@ -2107,10 +2105,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C110" s="8">
         <v>3.3039666164380641</v>
@@ -2121,10 +2119,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C111" s="8">
         <v>9.4951238864446736</v>
@@ -2135,10 +2133,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C112" s="8">
         <v>9.467774283005383</v>
@@ -2149,10 +2147,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C113" s="8">
         <v>2.1147830233499629</v>
@@ -2163,10 +2161,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C114" s="8">
         <v>37.370765482991267</v>
@@ -2177,10 +2175,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C115" s="8">
         <v>5.9005055472924921</v>
@@ -2191,10 +2189,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C116" s="8">
         <v>10.69431351838222</v>
@@ -2205,10 +2203,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C117" s="8">
         <v>10.650753902844871</v>
@@ -2219,10 +2217,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C118" s="8">
         <v>10.39604066622338</v>
@@ -2233,10 +2231,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C119" s="8">
         <v>2.3843847600800259</v>
@@ -2247,10 +2245,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C120" s="8">
         <v>2.44864531069179</v>
@@ -2261,10 +2259,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C121" s="8">
         <v>11.24708089383447</v>
@@ -2275,10 +2273,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C122" s="8">
         <v>11.34941052684318</v>
@@ -2289,10 +2287,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C123" s="8">
         <v>2.2959514835732611</v>
@@ -2303,10 +2301,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C124" s="8">
         <v>19.869879615140569</v>
@@ -2317,10 +2315,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="8">
         <v>20.87543249499781</v>
@@ -2331,10 +2329,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C126" s="8">
         <v>4.2367025787723493</v>
@@ -2345,10 +2343,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C127" s="8">
         <v>10.787139662630031</v>
@@ -2359,10 +2357,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C128" s="8">
         <v>6.3878458114696306</v>
@@ -2373,10 +2371,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C129" s="8">
         <v>6.0357865310597232</v>
@@ -2387,10 +2385,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C130" s="8">
         <v>6.4572285906199616</v>
@@ -2401,10 +2399,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C131" s="8">
         <v>6.1016719990685928</v>
@@ -2415,10 +2413,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C132" s="8">
         <v>6.4089135004558084</v>
@@ -2429,10 +2427,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C133" s="8">
         <v>6.2303888201300994</v>
@@ -2443,10 +2441,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="8">
         <v>6.2409743308406096</v>
@@ -2457,10 +2455,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C135" s="8">
         <v>6.1197082114551229</v>
@@ -2471,10 +2469,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C136" s="8">
         <v>2.836535125700947</v>
